--- a/LL1.xlsx
+++ b/LL1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-18.04\home\thornberger\pcl\pcl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theot\Documents\TELECOM\2A\Projet_compil\pcl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28939DA-7DC4-4792-8D70-B1E385C73972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155EE861-560F-485E-838C-01C9B7F63663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6D8C16DF-770F-44B3-88DF-F08FBFD5ADCC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{6D8C16DF-770F-44B3-88DF-F08FBFD5ADCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="280">
   <si>
     <t>NonTerminal</t>
   </si>
@@ -462,9 +462,6 @@
     <t>character'val</t>
   </si>
   <si>
-    <t>val</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -711,9 +708,6 @@
     <t>VAL ::= character'val ( EXPR )</t>
   </si>
   <si>
-    <t>VAL ::= 1 val</t>
-  </si>
-  <si>
     <t>VAL ::= IDENT IDENT_FIN</t>
   </si>
   <si>
@@ -880,6 +874,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>VAL ::= 1 VAL</t>
   </si>
 </sst>
 </file>
@@ -1070,21 +1067,1054 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="63">
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1120,1067 +2150,15 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2196,85 +2174,84 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3B311684-7FEF-473B-B60A-A615EB504C2F}" name="Tableau2" displayName="Tableau2" ref="A1:C70" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3B311684-7FEF-473B-B60A-A615EB504C2F}" name="Tableau2" displayName="Tableau2" ref="A1:C70" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
   <autoFilter ref="A1:C70" xr:uid="{3B311684-7FEF-473B-B60A-A615EB504C2F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E3044549-0769-40C4-9C5C-DBFA671A4845}" name="NonTerminal" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{67F3B719-3496-43ED-9B05-26425B119313}" name="Premier" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{160A0DC9-65A8-422D-B698-E1A358C05AC3}" name="Suivant" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{E3044549-0769-40C4-9C5C-DBFA671A4845}" name="NonTerminal" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{67F3B719-3496-43ED-9B05-26425B119313}" name="Premier" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{160A0DC9-65A8-422D-B698-E1A358C05AC3}" name="Suivant" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8E74F741-1C6A-4E84-B819-96F5A981BF6E}" name="Tableau1" displayName="Tableau1" ref="A1:BC70" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6" headerRowBorderDxfId="62" tableBorderDxfId="63">
-  <autoFilter ref="A1:BC70" xr:uid="{8E74F741-1C6A-4E84-B819-96F5A981BF6E}"/>
-  <tableColumns count="55">
-    <tableColumn id="1" xr3:uid="{5AD266EF-22CC-4966-9151-9FFC15167AD6}" name="NonTerminal" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{7059DAD8-7D62-490F-850C-276863C22F9E}" name="$" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{CA4DA1B5-0F5A-4364-A0B5-6E92B218C900}" name="with" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{67F9B9F8-0014-458F-A813-8195B9466917}" name="ada" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{C220D6C9-48FF-463A-A3AF-5125AD7C3E9E}" name="procedure" dataDxfId="57"/>
-    <tableColumn id="6" xr3:uid="{642BAA2C-82E6-487B-9154-82F98C001320}" name="type" dataDxfId="56"/>
-    <tableColumn id="7" xr3:uid="{85566011-3B5C-4E64-8D07-263FD36A31DA}" name="function" dataDxfId="55"/>
-    <tableColumn id="8" xr3:uid="{39F7F72A-9157-4377-8E5A-4E84C41F9D7D}" name=":" dataDxfId="54"/>
-    <tableColumn id="9" xr3:uid="{4C11F569-6EB2-476C-B024-ABAFD8E2A7F2}" name=";" dataDxfId="53"/>
-    <tableColumn id="10" xr3:uid="{303EAC2C-FE5D-4C7A-B4A1-B10BA61ED832}" name="is" dataDxfId="52"/>
-    <tableColumn id="11" xr3:uid="{CDCE0C21-09E6-4134-B640-10AACA012325}" name="access" dataDxfId="51"/>
-    <tableColumn id="12" xr3:uid="{173E12C1-E84D-465E-9B82-1553354A7EC5}" name="record" dataDxfId="50"/>
-    <tableColumn id="13" xr3:uid="{A6C3A856-37D2-4307-8A79-2997DAD9BA98}" name="end" dataDxfId="49"/>
-    <tableColumn id="14" xr3:uid="{0518CAB1-D713-4B9B-8F65-0DD9D4233B2E}" name="return" dataDxfId="48"/>
-    <tableColumn id="15" xr3:uid="{18F08BA3-B157-4A5A-88F3-869671E2EA9C}" name="begin" dataDxfId="47"/>
-    <tableColumn id="16" xr3:uid="{31F6A008-BFBD-4305-B475-6428D9168BF7}" name="(" dataDxfId="46"/>
-    <tableColumn id="17" xr3:uid="{E8DCA576-1986-497F-9213-BEB8DE8BB08D}" name=")" dataDxfId="45"/>
-    <tableColumn id="18" xr3:uid="{C4E35560-00D7-444B-83DA-641A130F1B95}" name="in" dataDxfId="44"/>
-    <tableColumn id="19" xr3:uid="{495C98BD-8D2F-4471-8F4E-EFAF7A9FB4F6}" name="out" dataDxfId="43"/>
-    <tableColumn id="20" xr3:uid="{436C4917-A7FA-486A-BA96-8E22DA224B8E}" name=":=" dataDxfId="42"/>
-    <tableColumn id="21" xr3:uid="{236DB34A-0135-4E85-AC7A-9FADF8D2FE7C}" name="," dataDxfId="41"/>
-    <tableColumn id="22" xr3:uid="{795DFF40-4061-4F93-9579-B52EA8498A01}" name="if" dataDxfId="40"/>
-    <tableColumn id="23" xr3:uid="{5575E39F-8C16-4BDF-B56F-522D2C03592C}" name="for" dataDxfId="39"/>
-    <tableColumn id="24" xr3:uid="{41EF6FBA-EF4C-477B-B0CE-16B004A93F3F}" name=".." dataDxfId="38"/>
-    <tableColumn id="25" xr3:uid="{1462666B-8AAA-46C7-93E1-6AC078E8C779}" name="while" dataDxfId="37"/>
-    <tableColumn id="26" xr3:uid="{E5854F24-F320-48A1-BD19-A25009ADFB82}" name="loop" dataDxfId="36"/>
-    <tableColumn id="27" xr3:uid="{5A77D88C-B13F-4B63-B83E-42EA5CB2759F}" name="elif" dataDxfId="35"/>
-    <tableColumn id="28" xr3:uid="{51805FBB-80B2-4572-BA7D-37921ADE4E14}" name="else" dataDxfId="34"/>
-    <tableColumn id="29" xr3:uid="{CF31BA5E-3C14-4A34-B025-B048CE2E2AFD}" name="then" dataDxfId="33"/>
-    <tableColumn id="30" xr3:uid="{B6712CB0-176A-4C17-9919-7722DA4080AB}" name="true" dataDxfId="32"/>
-    <tableColumn id="31" xr3:uid="{E80C3C64-3087-4872-8F12-0ADDDAD35DE7}" name="false" dataDxfId="31"/>
-    <tableColumn id="32" xr3:uid="{D90D8895-D518-428A-9FDD-835A4610EE52}" name="null" dataDxfId="30"/>
-    <tableColumn id="33" xr3:uid="{B124A16E-624B-405C-8E9D-D5545E1676F8}" name="new" dataDxfId="29"/>
-    <tableColumn id="34" xr3:uid="{68B0751C-A139-4EB3-8EEC-8D17E5EECCD4}" name="character'val" dataDxfId="28"/>
-    <tableColumn id="35" xr3:uid="{64C93356-1011-499A-8151-FB36BBC62722}" name="1" dataDxfId="27"/>
-    <tableColumn id="36" xr3:uid="{F57A76FD-D466-4641-B674-6C8D6BFDD6E3}" name="val" dataDxfId="26"/>
-    <tableColumn id="37" xr3:uid="{D0A030AD-5F98-4AF8-81DF-DA273CBA5AB4}" name="." dataDxfId="25"/>
-    <tableColumn id="38" xr3:uid="{72C55C15-106A-4590-9A55-16635F3076B4}" name="*" dataDxfId="24"/>
-    <tableColumn id="39" xr3:uid="{DF5E4884-FD16-4F5C-8768-21695073648E}" name="/" dataDxfId="23"/>
-    <tableColumn id="40" xr3:uid="{66F5C42C-0BD7-4FC0-80C7-67499F833940}" name="rem" dataDxfId="22"/>
-    <tableColumn id="41" xr3:uid="{81DFEAAF-FEFC-48E8-84AC-1D156B3A97F4}" name="+" dataDxfId="21"/>
-    <tableColumn id="42" xr3:uid="{17A98CBD-33D0-43CD-B0E2-883A066B9866}" name="-" dataDxfId="20"/>
-    <tableColumn id="43" xr3:uid="{F3BAE545-384A-4860-B0A6-B35DC37E1712}" name="&gt;" dataDxfId="19"/>
-    <tableColumn id="44" xr3:uid="{259C2B58-0E8B-426E-9A59-57A462CB9A35}" name="&gt;=" dataDxfId="18"/>
-    <tableColumn id="45" xr3:uid="{E14328D1-0637-429A-8397-C32FB013E48C}" name="&lt;" dataDxfId="17"/>
-    <tableColumn id="46" xr3:uid="{23D81599-73C1-4640-901B-D5CA312D1851}" name="&lt;=" dataDxfId="16"/>
-    <tableColumn id="47" xr3:uid="{5814C707-4405-42D7-810D-BA8E81FB544C}" name="not" dataDxfId="15"/>
-    <tableColumn id="48" xr3:uid="{D5C3FD00-AA0E-4388-9E84-46B1E49A5550}" name="=" dataDxfId="14"/>
-    <tableColumn id="49" xr3:uid="{48BB9130-2222-4E03-85F1-99FD5AEE2D51}" name="/=" dataDxfId="13"/>
-    <tableColumn id="50" xr3:uid="{BA9F58D6-27B7-42E1-983A-70F8866BED24}" name="and" dataDxfId="12"/>
-    <tableColumn id="51" xr3:uid="{494A4BEA-8BCA-403D-A57E-0EBD5328DDBB}" name="or" dataDxfId="11"/>
-    <tableColumn id="52" xr3:uid="{5031BDCA-6272-4636-9894-C9E77910C257}" name="idf" dataDxfId="10"/>
-    <tableColumn id="53" xr3:uid="{B1CA6472-1FF1-436B-B8C2-CF1AF9BE4E2D}" name="int" dataDxfId="9"/>
-    <tableColumn id="54" xr3:uid="{2093A23E-8D13-42A4-9973-F8B1BCDE08FB}" name="carac" dataDxfId="8"/>
-    <tableColumn id="55" xr3:uid="{7ED0FD3D-1A44-4341-BB08-7C7A4326C313}" name="reverse" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8E74F741-1C6A-4E84-B819-96F5A981BF6E}" name="Tableau1" displayName="Tableau1" ref="A1:BB70" totalsRowShown="0" headerRowDxfId="57" dataDxfId="55" headerRowBorderDxfId="56" tableBorderDxfId="54">
+  <autoFilter ref="A1:BB70" xr:uid="{8E74F741-1C6A-4E84-B819-96F5A981BF6E}"/>
+  <tableColumns count="54">
+    <tableColumn id="1" xr3:uid="{5AD266EF-22CC-4966-9151-9FFC15167AD6}" name="NonTerminal" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{7059DAD8-7D62-490F-850C-276863C22F9E}" name="$" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{CA4DA1B5-0F5A-4364-A0B5-6E92B218C900}" name="with" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{67F9B9F8-0014-458F-A813-8195B9466917}" name="ada" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{C220D6C9-48FF-463A-A3AF-5125AD7C3E9E}" name="procedure" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{642BAA2C-82E6-487B-9154-82F98C001320}" name="type" dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{85566011-3B5C-4E64-8D07-263FD36A31DA}" name="function" dataDxfId="47"/>
+    <tableColumn id="8" xr3:uid="{39F7F72A-9157-4377-8E5A-4E84C41F9D7D}" name=":" dataDxfId="46"/>
+    <tableColumn id="9" xr3:uid="{4C11F569-6EB2-476C-B024-ABAFD8E2A7F2}" name=";" dataDxfId="45"/>
+    <tableColumn id="10" xr3:uid="{303EAC2C-FE5D-4C7A-B4A1-B10BA61ED832}" name="is" dataDxfId="44"/>
+    <tableColumn id="11" xr3:uid="{CDCE0C21-09E6-4134-B640-10AACA012325}" name="access" dataDxfId="43"/>
+    <tableColumn id="12" xr3:uid="{173E12C1-E84D-465E-9B82-1553354A7EC5}" name="record" dataDxfId="42"/>
+    <tableColumn id="13" xr3:uid="{A6C3A856-37D2-4307-8A79-2997DAD9BA98}" name="end" dataDxfId="41"/>
+    <tableColumn id="14" xr3:uid="{0518CAB1-D713-4B9B-8F65-0DD9D4233B2E}" name="return" dataDxfId="40"/>
+    <tableColumn id="15" xr3:uid="{18F08BA3-B157-4A5A-88F3-869671E2EA9C}" name="begin" dataDxfId="39"/>
+    <tableColumn id="16" xr3:uid="{31F6A008-BFBD-4305-B475-6428D9168BF7}" name="(" dataDxfId="38"/>
+    <tableColumn id="17" xr3:uid="{E8DCA576-1986-497F-9213-BEB8DE8BB08D}" name=")" dataDxfId="37"/>
+    <tableColumn id="18" xr3:uid="{C4E35560-00D7-444B-83DA-641A130F1B95}" name="in" dataDxfId="36"/>
+    <tableColumn id="19" xr3:uid="{495C98BD-8D2F-4471-8F4E-EFAF7A9FB4F6}" name="out" dataDxfId="35"/>
+    <tableColumn id="20" xr3:uid="{436C4917-A7FA-486A-BA96-8E22DA224B8E}" name=":=" dataDxfId="34"/>
+    <tableColumn id="21" xr3:uid="{236DB34A-0135-4E85-AC7A-9FADF8D2FE7C}" name="," dataDxfId="33"/>
+    <tableColumn id="22" xr3:uid="{795DFF40-4061-4F93-9579-B52EA8498A01}" name="if" dataDxfId="32"/>
+    <tableColumn id="23" xr3:uid="{5575E39F-8C16-4BDF-B56F-522D2C03592C}" name="for" dataDxfId="31"/>
+    <tableColumn id="24" xr3:uid="{41EF6FBA-EF4C-477B-B0CE-16B004A93F3F}" name=".." dataDxfId="30"/>
+    <tableColumn id="25" xr3:uid="{1462666B-8AAA-46C7-93E1-6AC078E8C779}" name="while" dataDxfId="29"/>
+    <tableColumn id="26" xr3:uid="{E5854F24-F320-48A1-BD19-A25009ADFB82}" name="loop" dataDxfId="28"/>
+    <tableColumn id="27" xr3:uid="{5A77D88C-B13F-4B63-B83E-42EA5CB2759F}" name="elif" dataDxfId="27"/>
+    <tableColumn id="28" xr3:uid="{51805FBB-80B2-4572-BA7D-37921ADE4E14}" name="else" dataDxfId="26"/>
+    <tableColumn id="29" xr3:uid="{CF31BA5E-3C14-4A34-B025-B048CE2E2AFD}" name="then" dataDxfId="25"/>
+    <tableColumn id="30" xr3:uid="{B6712CB0-176A-4C17-9919-7722DA4080AB}" name="true" dataDxfId="24"/>
+    <tableColumn id="31" xr3:uid="{E80C3C64-3087-4872-8F12-0ADDDAD35DE7}" name="false" dataDxfId="23"/>
+    <tableColumn id="32" xr3:uid="{D90D8895-D518-428A-9FDD-835A4610EE52}" name="null" dataDxfId="22"/>
+    <tableColumn id="33" xr3:uid="{B124A16E-624B-405C-8E9D-D5545E1676F8}" name="new" dataDxfId="21"/>
+    <tableColumn id="34" xr3:uid="{68B0751C-A139-4EB3-8EEC-8D17E5EECCD4}" name="character'val" dataDxfId="20"/>
+    <tableColumn id="35" xr3:uid="{64C93356-1011-499A-8151-FB36BBC62722}" name="1" dataDxfId="19"/>
+    <tableColumn id="37" xr3:uid="{D0A030AD-5F98-4AF8-81DF-DA273CBA5AB4}" name="." dataDxfId="18"/>
+    <tableColumn id="38" xr3:uid="{72C55C15-106A-4590-9A55-16635F3076B4}" name="*" dataDxfId="17"/>
+    <tableColumn id="39" xr3:uid="{DF5E4884-FD16-4F5C-8768-21695073648E}" name="/" dataDxfId="16"/>
+    <tableColumn id="40" xr3:uid="{66F5C42C-0BD7-4FC0-80C7-67499F833940}" name="rem" dataDxfId="15"/>
+    <tableColumn id="41" xr3:uid="{81DFEAAF-FEFC-48E8-84AC-1D156B3A97F4}" name="+" dataDxfId="14"/>
+    <tableColumn id="42" xr3:uid="{17A98CBD-33D0-43CD-B0E2-883A066B9866}" name="-" dataDxfId="13"/>
+    <tableColumn id="43" xr3:uid="{F3BAE545-384A-4860-B0A6-B35DC37E1712}" name="&gt;" dataDxfId="12"/>
+    <tableColumn id="44" xr3:uid="{259C2B58-0E8B-426E-9A59-57A462CB9A35}" name="&gt;=" dataDxfId="11"/>
+    <tableColumn id="45" xr3:uid="{E14328D1-0637-429A-8397-C32FB013E48C}" name="&lt;" dataDxfId="10"/>
+    <tableColumn id="46" xr3:uid="{23D81599-73C1-4640-901B-D5CA312D1851}" name="&lt;=" dataDxfId="9"/>
+    <tableColumn id="47" xr3:uid="{5814C707-4405-42D7-810D-BA8E81FB544C}" name="not" dataDxfId="8"/>
+    <tableColumn id="48" xr3:uid="{D5C3FD00-AA0E-4388-9E84-46B1E49A5550}" name="=" dataDxfId="7"/>
+    <tableColumn id="49" xr3:uid="{48BB9130-2222-4E03-85F1-99FD5AEE2D51}" name="/=" dataDxfId="6"/>
+    <tableColumn id="50" xr3:uid="{BA9F58D6-27B7-42E1-983A-70F8866BED24}" name="and" dataDxfId="5"/>
+    <tableColumn id="51" xr3:uid="{494A4BEA-8BCA-403D-A57E-0EBD5328DDBB}" name="or" dataDxfId="4"/>
+    <tableColumn id="52" xr3:uid="{5031BDCA-6272-4636-9894-C9E77910C257}" name="idf" dataDxfId="3"/>
+    <tableColumn id="53" xr3:uid="{B1CA6472-1FF1-436B-B8C2-CF1AF9BE4E2D}" name="int" dataDxfId="2"/>
+    <tableColumn id="54" xr3:uid="{2093A23E-8D13-42A4-9973-F8B1BCDE08FB}" name="carac" dataDxfId="1"/>
+    <tableColumn id="55" xr3:uid="{7ED0FD3D-1A44-4341-BB08-7C7A4326C313}" name="reverse" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2312,7 +2289,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2418,7 +2395,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2560,7 +2537,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2570,8 +2547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1E37C5-8300-43F0-8EE7-C57C19613C2D}">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" activeCellId="1" sqref="C8 B3"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3361,10 +3338,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F681F8A-924D-4ED2-9279-7655A3BABCEB}">
-  <dimension ref="A1:BC70"/>
+  <dimension ref="A1:BB70"/>
   <sheetViews>
-    <sheetView topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="AX10" sqref="AX10"/>
+    <sheetView tabSelected="1" topLeftCell="AH31" workbookViewId="0">
+      <selection activeCell="AI39" sqref="AI39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3396,8 +3373,7 @@
     <col min="28" max="28" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="23" bestFit="1" customWidth="1"/>
     <col min="30" max="35" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="37" max="46" width="32" bestFit="1" customWidth="1"/>
+    <col min="36" max="46" width="32" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="35.21875" bestFit="1" customWidth="1"/>
     <col min="48" max="49" width="32" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="32.33203125" bestFit="1" customWidth="1"/>
@@ -3407,7 +3383,7 @@
     <col min="55" max="55" width="23.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3511,13 +3487,13 @@
         <v>140</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AJ1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK1" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="AL1" s="6" t="s">
         <v>142</v>
@@ -3553,34 +3529,31 @@
         <v>152</v>
       </c>
       <c r="AW1" s="6" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="AX1" s="6" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AY1" s="6" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="AZ1" s="6" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="BA1" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="BB1" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="BC1" s="7" t="s">
+      <c r="BB1" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -3632,16 +3605,15 @@
       <c r="AY2" s="2"/>
       <c r="AZ2" s="2"/>
       <c r="BA2" s="2"/>
-      <c r="BB2" s="2"/>
-      <c r="BC2" s="4"/>
-    </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB2" s="4"/>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -3693,10 +3665,9 @@
       <c r="AY3" s="2"/>
       <c r="AZ3" s="2"/>
       <c r="BA3" s="2"/>
-      <c r="BB3" s="2"/>
-      <c r="BC3" s="4"/>
-    </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB3" s="4"/>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -3704,13 +3675,13 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -3755,15 +3726,14 @@
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
       <c r="AX4" s="2"/>
-      <c r="AY4" s="2"/>
-      <c r="AZ4" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="AY4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AZ4" s="2"/>
       <c r="BA4" s="2"/>
-      <c r="BB4" s="2"/>
-      <c r="BC4" s="4"/>
-    </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB4" s="4"/>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -3775,10 +3745,10 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -3823,10 +3793,9 @@
       <c r="AY5" s="2"/>
       <c r="AZ5" s="2"/>
       <c r="BA5" s="2"/>
-      <c r="BB5" s="2"/>
-      <c r="BC5" s="4"/>
-    </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB5" s="4"/>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -3840,10 +3809,10 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -3886,10 +3855,9 @@
       <c r="AY6" s="2"/>
       <c r="AZ6" s="2"/>
       <c r="BA6" s="2"/>
-      <c r="BB6" s="2"/>
-      <c r="BC6" s="4"/>
-    </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB6" s="4"/>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -3942,15 +3910,14 @@
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
       <c r="AX7" s="2"/>
-      <c r="AY7" s="2"/>
-      <c r="AZ7" s="2" t="s">
-        <v>164</v>
-      </c>
+      <c r="AY7" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AZ7" s="2"/>
       <c r="BA7" s="2"/>
-      <c r="BB7" s="2"/>
-      <c r="BC7" s="4"/>
-    </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB7" s="4"/>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -4003,15 +3970,14 @@
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
       <c r="AX8" s="2"/>
-      <c r="AY8" s="2"/>
-      <c r="AZ8" s="2" t="s">
-        <v>165</v>
-      </c>
+      <c r="AY8" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AZ8" s="2"/>
       <c r="BA8" s="2"/>
-      <c r="BB8" s="2"/>
-      <c r="BC8" s="4"/>
-    </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB8" s="4"/>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -4019,13 +3985,13 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -4035,7 +4001,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -4072,15 +4038,14 @@
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
       <c r="AX9" s="2"/>
-      <c r="AY9" s="2"/>
-      <c r="AZ9" s="2" t="s">
-        <v>166</v>
-      </c>
+      <c r="AY9" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AZ9" s="2"/>
       <c r="BA9" s="2"/>
-      <c r="BB9" s="2"/>
-      <c r="BC9" s="4"/>
-    </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB9" s="4"/>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -4133,15 +4098,14 @@
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
       <c r="AX10" s="2"/>
-      <c r="AY10" s="2"/>
-      <c r="AZ10" s="2" t="s">
-        <v>168</v>
-      </c>
+      <c r="AY10" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AZ10" s="2"/>
       <c r="BA10" s="2"/>
-      <c r="BB10" s="2"/>
-      <c r="BC10" s="4"/>
-    </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB10" s="4"/>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -4194,15 +4158,14 @@
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
       <c r="AX11" s="2"/>
-      <c r="AY11" s="2"/>
-      <c r="AZ11" s="2" t="s">
-        <v>169</v>
-      </c>
+      <c r="AY11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ11" s="2"/>
       <c r="BA11" s="2"/>
-      <c r="BB11" s="2"/>
-      <c r="BC11" s="4"/>
-    </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB11" s="4"/>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -4218,7 +4181,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -4257,15 +4220,14 @@
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
       <c r="AX12" s="2"/>
-      <c r="AY12" s="2"/>
-      <c r="AZ12" s="2" t="s">
-        <v>171</v>
-      </c>
+      <c r="AY12" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AZ12" s="2"/>
       <c r="BA12" s="2"/>
-      <c r="BB12" s="2"/>
-      <c r="BC12" s="4"/>
-    </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB12" s="4"/>
+    </row>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
@@ -4279,7 +4241,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -4320,15 +4282,14 @@
       <c r="AV13" s="2"/>
       <c r="AW13" s="2"/>
       <c r="AX13" s="2"/>
-      <c r="AY13" s="2"/>
-      <c r="AZ13" s="2" t="s">
-        <v>173</v>
-      </c>
+      <c r="AY13" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AZ13" s="2"/>
       <c r="BA13" s="2"/>
-      <c r="BB13" s="2"/>
-      <c r="BC13" s="4"/>
-    </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB13" s="4"/>
+    </row>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -4347,7 +4308,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -4386,10 +4347,9 @@
       <c r="AY14" s="2"/>
       <c r="AZ14" s="2"/>
       <c r="BA14" s="2"/>
-      <c r="BB14" s="2"/>
-      <c r="BC14" s="4"/>
-    </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB14" s="4"/>
+    </row>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
@@ -4406,11 +4366,11 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -4449,10 +4409,9 @@
       <c r="AY15" s="2"/>
       <c r="AZ15" s="2"/>
       <c r="BA15" s="2"/>
-      <c r="BB15" s="2"/>
-      <c r="BC15" s="4"/>
-    </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB15" s="4"/>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
@@ -4505,15 +4464,14 @@
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
       <c r="AX16" s="2"/>
-      <c r="AY16" s="2"/>
-      <c r="AZ16" s="2" t="s">
-        <v>177</v>
-      </c>
+      <c r="AY16" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AZ16" s="2"/>
       <c r="BA16" s="2"/>
-      <c r="BB16" s="2"/>
-      <c r="BC16" s="4"/>
-    </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB16" s="4"/>
+    </row>
+    <row r="17" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -4525,7 +4483,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -4535,7 +4493,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -4573,10 +4531,9 @@
       <c r="AY17" s="2"/>
       <c r="AZ17" s="2"/>
       <c r="BA17" s="2"/>
-      <c r="BB17" s="2"/>
-      <c r="BC17" s="4"/>
-    </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB17" s="4"/>
+    </row>
+    <row r="18" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
@@ -4629,15 +4586,14 @@
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
       <c r="AX18" s="2"/>
-      <c r="AY18" s="2"/>
-      <c r="AZ18" s="2" t="s">
-        <v>180</v>
-      </c>
+      <c r="AY18" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AZ18" s="2"/>
       <c r="BA18" s="2"/>
-      <c r="BB18" s="2"/>
-      <c r="BC18" s="4"/>
-    </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB18" s="4"/>
+    </row>
+    <row r="19" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
@@ -4651,7 +4607,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -4660,7 +4616,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
@@ -4694,15 +4650,14 @@
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
       <c r="AX19" s="2"/>
-      <c r="AY19" s="2"/>
-      <c r="AZ19" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="AY19" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AZ19" s="2"/>
       <c r="BA19" s="2"/>
-      <c r="BB19" s="2"/>
-      <c r="BC19" s="4"/>
-    </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB19" s="4"/>
+    </row>
+    <row r="20" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
@@ -4723,7 +4678,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
@@ -4760,10 +4715,9 @@
       <c r="AY20" s="2"/>
       <c r="AZ20" s="2"/>
       <c r="BA20" s="2"/>
-      <c r="BB20" s="2"/>
-      <c r="BC20" s="4"/>
-    </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB20" s="4"/>
+    </row>
+    <row r="21" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
@@ -4777,7 +4731,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -4787,7 +4741,7 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -4820,15 +4774,14 @@
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
       <c r="AX21" s="2"/>
-      <c r="AY21" s="2"/>
-      <c r="AZ21" s="2" t="s">
-        <v>184</v>
-      </c>
+      <c r="AY21" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ21" s="2"/>
       <c r="BA21" s="2"/>
-      <c r="BB21" s="2"/>
-      <c r="BC21" s="4"/>
-    </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB21" s="4"/>
+    </row>
+    <row r="22" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>43</v>
       </c>
@@ -4840,7 +4793,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -4849,7 +4802,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -4888,10 +4841,9 @@
       <c r="AY22" s="2"/>
       <c r="AZ22" s="2"/>
       <c r="BA22" s="2"/>
-      <c r="BB22" s="2"/>
-      <c r="BC22" s="4"/>
-    </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB22" s="4"/>
+    </row>
+    <row r="23" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
@@ -4910,7 +4862,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
@@ -4949,10 +4901,9 @@
       <c r="AY23" s="2"/>
       <c r="AZ23" s="2"/>
       <c r="BA23" s="2"/>
-      <c r="BB23" s="2"/>
-      <c r="BC23" s="4"/>
-    </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB23" s="4"/>
+    </row>
+    <row r="24" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>45</v>
       </c>
@@ -4971,7 +4922,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -4987,22 +4938,22 @@
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF24" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AG24" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AH24" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI24" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AJ24" s="2"/>
       <c r="AK24" s="2"/>
@@ -5014,26 +4965,25 @@
       <c r="AQ24" s="2"/>
       <c r="AR24" s="2"/>
       <c r="AS24" s="2"/>
-      <c r="AT24" s="2"/>
-      <c r="AU24" s="2" t="s">
-        <v>189</v>
-      </c>
+      <c r="AT24" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
       <c r="AX24" s="2"/>
-      <c r="AY24" s="2"/>
+      <c r="AY24" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="AZ24" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BA24" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="BB24" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="BC24" s="4"/>
-    </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+      <c r="BB24" s="4"/>
+    </row>
+    <row r="25" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>47</v>
       </c>
@@ -5052,7 +5002,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
@@ -5068,22 +5018,22 @@
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF25" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG25" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AH25" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AI25" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AJ25" s="2"/>
       <c r="AK25" s="2"/>
@@ -5095,26 +5045,25 @@
       <c r="AQ25" s="2"/>
       <c r="AR25" s="2"/>
       <c r="AS25" s="2"/>
-      <c r="AT25" s="2"/>
-      <c r="AU25" s="2" t="s">
-        <v>190</v>
-      </c>
+      <c r="AT25" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
       <c r="AX25" s="2"/>
-      <c r="AY25" s="2"/>
+      <c r="AY25" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="AZ25" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BA25" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="BB25" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="BC25" s="4"/>
-    </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+      <c r="BB25" s="4"/>
+    </row>
+    <row r="26" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>48</v>
       </c>
@@ -5134,13 +5083,13 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
@@ -5174,10 +5123,9 @@
       <c r="AY26" s="2"/>
       <c r="AZ26" s="2"/>
       <c r="BA26" s="2"/>
-      <c r="BB26" s="2"/>
-      <c r="BC26" s="4"/>
-    </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB26" s="4"/>
+    </row>
+    <row r="27" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>50</v>
       </c>
@@ -5193,12 +5141,12 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
@@ -5211,29 +5159,29 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB27" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF27" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG27" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AH27" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AI27" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AJ27" s="2"/>
       <c r="AK27" s="2"/>
@@ -5245,26 +5193,25 @@
       <c r="AQ27" s="2"/>
       <c r="AR27" s="2"/>
       <c r="AS27" s="2"/>
-      <c r="AT27" s="2"/>
-      <c r="AU27" s="2" t="s">
-        <v>194</v>
-      </c>
+      <c r="AT27" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
       <c r="AX27" s="2"/>
-      <c r="AY27" s="2"/>
+      <c r="AY27" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="AZ27" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="BA27" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="BB27" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="BC27" s="4"/>
-    </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+      <c r="BB27" s="4"/>
+    </row>
+    <row r="28" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
@@ -5281,10 +5228,10 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O28" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -5293,14 +5240,14 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
@@ -5327,15 +5274,14 @@
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
       <c r="AX28" s="2"/>
-      <c r="AY28" s="2"/>
-      <c r="AZ28" s="2" t="s">
-        <v>196</v>
-      </c>
+      <c r="AY28" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AZ28" s="2"/>
       <c r="BA28" s="2"/>
-      <c r="BB28" s="2"/>
-      <c r="BC28" s="4"/>
-    </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB28" s="4"/>
+    </row>
+    <row r="29" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
@@ -5351,13 +5297,13 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="N29" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="N29" s="2" t="s">
+      <c r="O29" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
@@ -5366,21 +5312,21 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
@@ -5404,15 +5350,14 @@
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
       <c r="AX29" s="2"/>
-      <c r="AY29" s="2"/>
-      <c r="AZ29" s="2" t="s">
-        <v>199</v>
-      </c>
+      <c r="AY29" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AZ29" s="2"/>
       <c r="BA29" s="2"/>
-      <c r="BB29" s="2"/>
-      <c r="BC29" s="4"/>
-    </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB29" s="4"/>
+    </row>
+    <row r="30" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>55</v>
       </c>
@@ -5430,7 +5375,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -5439,14 +5384,14 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="W30" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="W30" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
@@ -5473,15 +5418,14 @@
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
       <c r="AX30" s="2"/>
-      <c r="AY30" s="2"/>
-      <c r="AZ30" s="2" t="s">
-        <v>204</v>
-      </c>
+      <c r="AY30" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="AZ30" s="2"/>
       <c r="BA30" s="2"/>
-      <c r="BB30" s="2"/>
-      <c r="BC30" s="4"/>
-    </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB30" s="4"/>
+    </row>
+    <row r="31" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>57</v>
       </c>
@@ -5493,7 +5437,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -5502,13 +5446,13 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
@@ -5543,10 +5487,9 @@
       <c r="AY31" s="2"/>
       <c r="AZ31" s="2"/>
       <c r="BA31" s="2"/>
-      <c r="BB31" s="2"/>
-      <c r="BC31" s="4"/>
-    </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB31" s="4"/>
+    </row>
+    <row r="32" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>59</v>
       </c>
@@ -5562,12 +5505,12 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
@@ -5580,29 +5523,29 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AB32" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE32" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF32" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG32" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AH32" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI32" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AJ32" s="2"/>
       <c r="AK32" s="2"/>
@@ -5614,26 +5557,25 @@
       <c r="AQ32" s="2"/>
       <c r="AR32" s="2"/>
       <c r="AS32" s="2"/>
-      <c r="AT32" s="2"/>
-      <c r="AU32" s="2" t="s">
-        <v>208</v>
-      </c>
+      <c r="AT32" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AU32" s="2"/>
       <c r="AV32" s="2"/>
       <c r="AW32" s="2"/>
       <c r="AX32" s="2"/>
-      <c r="AY32" s="2"/>
+      <c r="AY32" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="AZ32" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BA32" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="BB32" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="BC32" s="4"/>
-    </row>
-    <row r="33" spans="1:55" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+      <c r="BB32" s="4"/>
+    </row>
+    <row r="33" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>60</v>
       </c>
@@ -5652,7 +5594,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
@@ -5668,22 +5610,22 @@
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
       <c r="AD33" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AE33" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AF33" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG33" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AH33" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AI33" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AJ33" s="2"/>
       <c r="AK33" s="2"/>
@@ -5695,26 +5637,25 @@
       <c r="AQ33" s="2"/>
       <c r="AR33" s="2"/>
       <c r="AS33" s="2"/>
-      <c r="AT33" s="2"/>
-      <c r="AU33" s="2" t="s">
-        <v>209</v>
-      </c>
+      <c r="AT33" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AU33" s="2"/>
       <c r="AV33" s="2"/>
       <c r="AW33" s="2"/>
       <c r="AX33" s="2"/>
-      <c r="AY33" s="2"/>
+      <c r="AY33" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="AZ33" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA33" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="BB33" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="BC33" s="4"/>
-    </row>
-    <row r="34" spans="1:55" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+      <c r="BB33" s="4"/>
+    </row>
+    <row r="34" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>61</v>
       </c>
@@ -5730,7 +5671,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5746,10 +5687,10 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
@@ -5776,10 +5717,9 @@
       <c r="AY34" s="2"/>
       <c r="AZ34" s="2"/>
       <c r="BA34" s="2"/>
-      <c r="BB34" s="2"/>
-      <c r="BC34" s="4"/>
-    </row>
-    <row r="35" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB34" s="4"/>
+    </row>
+    <row r="35" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>64</v>
       </c>
@@ -5809,7 +5749,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
@@ -5837,10 +5777,9 @@
       <c r="AY35" s="2"/>
       <c r="AZ35" s="2"/>
       <c r="BA35" s="2"/>
-      <c r="BB35" s="2"/>
-      <c r="BC35" s="4"/>
-    </row>
-    <row r="36" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB35" s="4"/>
+    </row>
+    <row r="36" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>65</v>
       </c>
@@ -5856,7 +5795,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5873,7 +5812,7 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
       <c r="AB36" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" s="2"/>
@@ -5900,10 +5839,9 @@
       <c r="AY36" s="2"/>
       <c r="AZ36" s="2"/>
       <c r="BA36" s="2"/>
-      <c r="BB36" s="2"/>
-      <c r="BC36" s="4"/>
-    </row>
-    <row r="37" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB36" s="4"/>
+    </row>
+    <row r="37" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>67</v>
       </c>
@@ -5934,7 +5872,7 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
       <c r="AB37" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -5961,10 +5899,9 @@
       <c r="AY37" s="2"/>
       <c r="AZ37" s="2"/>
       <c r="BA37" s="2"/>
-      <c r="BB37" s="2"/>
-      <c r="BC37" s="4"/>
-    </row>
-    <row r="38" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB37" s="4"/>
+    </row>
+    <row r="38" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>114</v>
       </c>
@@ -5981,10 +5918,10 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
@@ -5993,20 +5930,20 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
       <c r="V38" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
       <c r="AC38" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
@@ -6029,15 +5966,14 @@
       <c r="AV38" s="2"/>
       <c r="AW38" s="2"/>
       <c r="AX38" s="2"/>
-      <c r="AY38" s="2"/>
-      <c r="AZ38" s="2" t="s">
-        <v>216</v>
-      </c>
+      <c r="AY38" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AZ38" s="2"/>
       <c r="BA38" s="2"/>
-      <c r="BB38" s="2"/>
-      <c r="BC38" s="4"/>
-    </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB38" s="4"/>
+    </row>
+    <row r="39" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>68</v>
       </c>
@@ -6056,7 +5992,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -6072,22 +6008,22 @@
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
       <c r="AD39" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE39" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="AE39" s="2" t="s">
+      <c r="AF39" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="AF39" s="2" t="s">
+      <c r="AG39" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AG39" s="2" t="s">
+      <c r="AH39" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AH39" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="AI39" s="2" t="s">
-        <v>224</v>
+        <v>279</v>
       </c>
       <c r="AJ39" s="2"/>
       <c r="AK39" s="2"/>
@@ -6104,19 +6040,18 @@
       <c r="AV39" s="2"/>
       <c r="AW39" s="2"/>
       <c r="AX39" s="2"/>
-      <c r="AY39" s="2"/>
+      <c r="AY39" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="AZ39" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="BA39" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="BA39" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="BB39" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="BC39" s="4"/>
-    </row>
-    <row r="40" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB39" s="4"/>
+    </row>
+    <row r="40" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>70</v>
       </c>
@@ -6135,7 +6070,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
@@ -6151,22 +6086,22 @@
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
       <c r="AD40" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AE40" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AF40" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AG40" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AH40" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AI40" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AJ40" s="2"/>
       <c r="AK40" s="2"/>
@@ -6183,19 +6118,18 @@
       <c r="AV40" s="2"/>
       <c r="AW40" s="2"/>
       <c r="AX40" s="2"/>
-      <c r="AY40" s="2"/>
+      <c r="AY40" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="AZ40" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="BA40" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="BB40" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="BC40" s="4"/>
-    </row>
-    <row r="41" spans="1:55" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+      <c r="BB40" s="4"/>
+    </row>
+    <row r="41" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>71</v>
       </c>
@@ -6207,53 +6141,53 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
       <c r="U41" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Y41" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Z41" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AA41" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AB41" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AC41" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
@@ -6261,58 +6195,57 @@
       <c r="AG41" s="2"/>
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
-      <c r="AJ41" s="2"/>
+      <c r="AJ41" s="2" t="s">
+        <v>228</v>
+      </c>
       <c r="AK41" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AL41" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AM41" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AN41" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AO41" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AP41" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AQ41" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AR41" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AS41" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AT41" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AU41" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="AT41" s="2"/>
+      <c r="AU41" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="AV41" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AW41" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AX41" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AY41" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AZ41" s="2" t="s">
-        <v>229</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="AZ41" s="2"/>
       <c r="BA41" s="2"/>
-      <c r="BB41" s="2"/>
-      <c r="BC41" s="4"/>
-    </row>
-    <row r="42" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB41" s="4"/>
+    </row>
+    <row r="42" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>73</v>
       </c>
@@ -6350,10 +6283,10 @@
       <c r="AG42" s="2"/>
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
-      <c r="AJ42" s="2"/>
-      <c r="AK42" s="2" t="s">
-        <v>231</v>
-      </c>
+      <c r="AJ42" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK42" s="2"/>
       <c r="AL42" s="2"/>
       <c r="AM42" s="2"/>
       <c r="AN42" s="2"/>
@@ -6370,10 +6303,9 @@
       <c r="AY42" s="2"/>
       <c r="AZ42" s="2"/>
       <c r="BA42" s="2"/>
-      <c r="BB42" s="2"/>
-      <c r="BC42" s="4"/>
-    </row>
-    <row r="43" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB42" s="4"/>
+    </row>
+    <row r="43" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>74</v>
       </c>
@@ -6392,7 +6324,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
@@ -6408,22 +6340,22 @@
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
       <c r="AD43" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AE43" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AF43" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AG43" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AH43" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AI43" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AJ43" s="2"/>
       <c r="AK43" s="2"/>
@@ -6440,19 +6372,18 @@
       <c r="AV43" s="2"/>
       <c r="AW43" s="2"/>
       <c r="AX43" s="2"/>
-      <c r="AY43" s="2"/>
+      <c r="AY43" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="AZ43" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="BA43" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="BB43" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="BC43" s="4"/>
-    </row>
-    <row r="44" spans="1:55" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+      <c r="BB43" s="4"/>
+    </row>
+    <row r="44" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>75</v>
       </c>
@@ -6464,53 +6395,53 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
       <c r="U44" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="W44" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="X44" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Y44" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Z44" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AA44" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AB44" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AC44" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
@@ -6519,55 +6450,54 @@
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
       <c r="AJ44" s="2"/>
-      <c r="AK44" s="2"/>
+      <c r="AK44" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="AL44" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AM44" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AN44" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AO44" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AP44" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AQ44" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AR44" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AS44" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="AT44" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="AU44" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="AT44" s="2"/>
+      <c r="AU44" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="AV44" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AW44" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AX44" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AY44" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="AZ44" s="2" t="s">
-        <v>233</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="AZ44" s="2"/>
       <c r="BA44" s="2"/>
-      <c r="BB44" s="2"/>
-      <c r="BC44" s="4"/>
-    </row>
-    <row r="45" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB44" s="4"/>
+    </row>
+    <row r="45" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>77</v>
       </c>
@@ -6606,16 +6536,16 @@
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
       <c r="AJ45" s="2"/>
-      <c r="AK45" s="2"/>
+      <c r="AK45" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="AL45" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="AM45" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="AM45" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="AN45" s="2" t="s">
-        <v>237</v>
-      </c>
+      <c r="AN45" s="2"/>
       <c r="AO45" s="2"/>
       <c r="AP45" s="2"/>
       <c r="AQ45" s="2"/>
@@ -6629,10 +6559,9 @@
       <c r="AY45" s="2"/>
       <c r="AZ45" s="2"/>
       <c r="BA45" s="2"/>
-      <c r="BB45" s="2"/>
-      <c r="BC45" s="4"/>
-    </row>
-    <row r="46" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB45" s="4"/>
+    </row>
+    <row r="46" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>78</v>
       </c>
@@ -6651,7 +6580,7 @@
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
@@ -6667,22 +6596,22 @@
       <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
       <c r="AD46" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AE46" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AF46" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AG46" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AH46" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AI46" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AJ46" s="2"/>
       <c r="AK46" s="2"/>
@@ -6699,19 +6628,18 @@
       <c r="AV46" s="2"/>
       <c r="AW46" s="2"/>
       <c r="AX46" s="2"/>
-      <c r="AY46" s="2"/>
+      <c r="AY46" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="AZ46" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="BA46" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="BB46" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="BC46" s="4"/>
-    </row>
-    <row r="47" spans="1:55" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+      <c r="BB46" s="4"/>
+    </row>
+    <row r="47" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>79</v>
       </c>
@@ -6723,53 +6651,53 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
       <c r="U47" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="W47" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="X47" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Y47" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z47" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AA47" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AB47" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AC47" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
@@ -6781,46 +6709,45 @@
       <c r="AK47" s="2"/>
       <c r="AL47" s="2"/>
       <c r="AM47" s="2"/>
-      <c r="AN47" s="2"/>
+      <c r="AN47" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="AO47" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AP47" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AQ47" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AR47" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AS47" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT47" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="AU47" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="AT47" s="2"/>
+      <c r="AU47" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="AV47" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AW47" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AX47" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AY47" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="AZ47" s="2" t="s">
-        <v>239</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="AZ47" s="2"/>
       <c r="BA47" s="2"/>
-      <c r="BB47" s="2"/>
-      <c r="BC47" s="4"/>
-    </row>
-    <row r="48" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB47" s="4"/>
+    </row>
+    <row r="48" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>81</v>
       </c>
@@ -6862,13 +6789,13 @@
       <c r="AK48" s="2"/>
       <c r="AL48" s="2"/>
       <c r="AM48" s="2"/>
-      <c r="AN48" s="2"/>
+      <c r="AN48" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="AO48" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="AP48" s="2" t="s">
-        <v>242</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="AP48" s="2"/>
       <c r="AQ48" s="2"/>
       <c r="AR48" s="2"/>
       <c r="AS48" s="2"/>
@@ -6880,10 +6807,9 @@
       <c r="AY48" s="2"/>
       <c r="AZ48" s="2"/>
       <c r="BA48" s="2"/>
-      <c r="BB48" s="2"/>
-      <c r="BC48" s="4"/>
-    </row>
-    <row r="49" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB48" s="4"/>
+    </row>
+    <row r="49" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>82</v>
       </c>
@@ -6902,7 +6828,7 @@
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
@@ -6918,22 +6844,22 @@
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
       <c r="AD49" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AE49" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AF49" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AG49" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AH49" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AI49" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AJ49" s="2"/>
       <c r="AK49" s="2"/>
@@ -6950,19 +6876,18 @@
       <c r="AV49" s="2"/>
       <c r="AW49" s="2"/>
       <c r="AX49" s="2"/>
-      <c r="AY49" s="2"/>
+      <c r="AY49" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="AZ49" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="BA49" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="BB49" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="BC49" s="4"/>
-    </row>
-    <row r="50" spans="1:55" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+      <c r="BB49" s="4"/>
+    </row>
+    <row r="50" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>83</v>
       </c>
@@ -6974,53 +6899,53 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
       <c r="U50" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Y50" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Z50" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AA50" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AB50" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AC50" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
@@ -7034,40 +6959,39 @@
       <c r="AM50" s="2"/>
       <c r="AN50" s="2"/>
       <c r="AO50" s="2"/>
-      <c r="AP50" s="2"/>
+      <c r="AP50" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="AQ50" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AR50" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AS50" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="AT50" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="AU50" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="AT50" s="2"/>
+      <c r="AU50" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="AV50" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AW50" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AX50" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AY50" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="AZ50" s="2" t="s">
-        <v>244</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="AZ50" s="2"/>
       <c r="BA50" s="2"/>
-      <c r="BB50" s="2"/>
-      <c r="BC50" s="4"/>
-    </row>
-    <row r="51" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB50" s="4"/>
+    </row>
+    <row r="51" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>85</v>
       </c>
@@ -7111,19 +7035,19 @@
       <c r="AM51" s="2"/>
       <c r="AN51" s="2"/>
       <c r="AO51" s="2"/>
-      <c r="AP51" s="2"/>
+      <c r="AP51" s="2" t="s">
+        <v>244</v>
+      </c>
       <c r="AQ51" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="AR51" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="AR51" s="2" t="s">
+      <c r="AS51" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="AS51" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="AT51" s="2" t="s">
-        <v>249</v>
-      </c>
+      <c r="AT51" s="2"/>
       <c r="AU51" s="2"/>
       <c r="AV51" s="2"/>
       <c r="AW51" s="2"/>
@@ -7131,10 +7055,9 @@
       <c r="AY51" s="2"/>
       <c r="AZ51" s="2"/>
       <c r="BA51" s="2"/>
-      <c r="BB51" s="2"/>
-      <c r="BC51" s="4"/>
-    </row>
-    <row r="52" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB51" s="4"/>
+    </row>
+    <row r="52" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>86</v>
       </c>
@@ -7153,7 +7076,7 @@
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
@@ -7169,22 +7092,22 @@
       <c r="AB52" s="2"/>
       <c r="AC52" s="2"/>
       <c r="AD52" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AE52" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AF52" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AG52" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AH52" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AI52" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AJ52" s="2"/>
       <c r="AK52" s="2"/>
@@ -7196,26 +7119,25 @@
       <c r="AQ52" s="2"/>
       <c r="AR52" s="2"/>
       <c r="AS52" s="2"/>
-      <c r="AT52" s="2"/>
-      <c r="AU52" s="2" t="s">
-        <v>251</v>
-      </c>
+      <c r="AT52" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU52" s="2"/>
       <c r="AV52" s="2"/>
       <c r="AW52" s="2"/>
       <c r="AX52" s="2"/>
-      <c r="AY52" s="2"/>
+      <c r="AY52" s="2" t="s">
+        <v>248</v>
+      </c>
       <c r="AZ52" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="BA52" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="BB52" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="BC52" s="4"/>
-    </row>
-    <row r="53" spans="1:55" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+      <c r="BB52" s="4"/>
+    </row>
+    <row r="53" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>87</v>
       </c>
@@ -7227,53 +7149,53 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
       <c r="U53" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="W53" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="X53" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Y53" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Z53" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AA53" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AB53" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AC53" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
@@ -7292,27 +7214,26 @@
       <c r="AR53" s="2"/>
       <c r="AS53" s="2"/>
       <c r="AT53" s="2"/>
-      <c r="AU53" s="2"/>
+      <c r="AU53" s="2" t="s">
+        <v>251</v>
+      </c>
       <c r="AV53" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AW53" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AX53" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AY53" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="AZ53" s="2" t="s">
-        <v>252</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="AZ53" s="2"/>
       <c r="BA53" s="2"/>
-      <c r="BB53" s="2"/>
-      <c r="BC53" s="4"/>
-    </row>
-    <row r="54" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB53" s="4"/>
+    </row>
+    <row r="54" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>89</v>
       </c>
@@ -7361,21 +7282,20 @@
       <c r="AR54" s="2"/>
       <c r="AS54" s="2"/>
       <c r="AT54" s="2"/>
-      <c r="AU54" s="2"/>
+      <c r="AU54" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="AV54" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="AW54" s="2" t="s">
-        <v>255</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="AW54" s="2"/>
       <c r="AX54" s="2"/>
       <c r="AY54" s="2"/>
       <c r="AZ54" s="2"/>
       <c r="BA54" s="2"/>
-      <c r="BB54" s="2"/>
-      <c r="BC54" s="4"/>
-    </row>
-    <row r="55" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB54" s="4"/>
+    </row>
+    <row r="55" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>90</v>
       </c>
@@ -7394,7 +7314,7 @@
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
@@ -7410,22 +7330,22 @@
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
       <c r="AD55" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AE55" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AF55" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AG55" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AH55" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AI55" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AJ55" s="2"/>
       <c r="AK55" s="2"/>
@@ -7437,26 +7357,25 @@
       <c r="AQ55" s="2"/>
       <c r="AR55" s="2"/>
       <c r="AS55" s="2"/>
-      <c r="AT55" s="2"/>
-      <c r="AU55" s="2" t="s">
-        <v>256</v>
-      </c>
+      <c r="AT55" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="AU55" s="2"/>
       <c r="AV55" s="2"/>
       <c r="AW55" s="2"/>
       <c r="AX55" s="2"/>
-      <c r="AY55" s="2"/>
+      <c r="AY55" s="2" t="s">
+        <v>254</v>
+      </c>
       <c r="AZ55" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="BA55" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="BB55" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="BC55" s="4"/>
-    </row>
-    <row r="56" spans="1:55" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+      <c r="BB55" s="4"/>
+    </row>
+    <row r="56" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>91</v>
       </c>
@@ -7468,53 +7387,53 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
       <c r="U56" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="W56" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="X56" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Y56" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Z56" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AA56" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AB56" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AC56" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AD56" s="2"/>
       <c r="AE56" s="2"/>
@@ -7535,21 +7454,20 @@
       <c r="AT56" s="2"/>
       <c r="AU56" s="2"/>
       <c r="AV56" s="2"/>
-      <c r="AW56" s="2"/>
+      <c r="AW56" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="AX56" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AY56" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="AZ56" s="2" t="s">
-        <v>257</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="AZ56" s="2"/>
       <c r="BA56" s="2"/>
-      <c r="BB56" s="2"/>
-      <c r="BC56" s="4"/>
-    </row>
-    <row r="57" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB56" s="4"/>
+    </row>
+    <row r="57" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>93</v>
       </c>
@@ -7600,17 +7518,16 @@
       <c r="AT57" s="2"/>
       <c r="AU57" s="2"/>
       <c r="AV57" s="2"/>
-      <c r="AW57" s="2"/>
-      <c r="AX57" s="2" t="s">
-        <v>259</v>
-      </c>
+      <c r="AW57" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AX57" s="2"/>
       <c r="AY57" s="2"/>
       <c r="AZ57" s="2"/>
       <c r="BA57" s="2"/>
-      <c r="BB57" s="2"/>
-      <c r="BC57" s="4"/>
-    </row>
-    <row r="58" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB57" s="4"/>
+    </row>
+    <row r="58" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>94</v>
       </c>
@@ -7629,7 +7546,7 @@
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
@@ -7644,25 +7561,25 @@
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
       <c r="AC58" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AD58" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AE58" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AF58" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AG58" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AH58" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AI58" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AJ58" s="2"/>
       <c r="AK58" s="2"/>
@@ -7674,26 +7591,25 @@
       <c r="AQ58" s="2"/>
       <c r="AR58" s="2"/>
       <c r="AS58" s="2"/>
-      <c r="AT58" s="2"/>
-      <c r="AU58" s="2" t="s">
-        <v>260</v>
-      </c>
+      <c r="AT58" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU58" s="2"/>
       <c r="AV58" s="2"/>
       <c r="AW58" s="2"/>
       <c r="AX58" s="2"/>
-      <c r="AY58" s="2"/>
+      <c r="AY58" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="AZ58" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="BA58" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="BB58" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="BC58" s="4"/>
-    </row>
-    <row r="59" spans="1:55" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+      <c r="BB58" s="4"/>
+    </row>
+    <row r="59" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>96</v>
       </c>
@@ -7712,7 +7628,7 @@
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
@@ -7728,22 +7644,22 @@
       <c r="AB59" s="2"/>
       <c r="AC59" s="2"/>
       <c r="AD59" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AE59" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF59" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AG59" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AH59" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AI59" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AJ59" s="2"/>
       <c r="AK59" s="2"/>
@@ -7755,26 +7671,25 @@
       <c r="AQ59" s="2"/>
       <c r="AR59" s="2"/>
       <c r="AS59" s="2"/>
-      <c r="AT59" s="2"/>
-      <c r="AU59" s="2" t="s">
-        <v>262</v>
-      </c>
+      <c r="AT59" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="AU59" s="2"/>
       <c r="AV59" s="2"/>
       <c r="AW59" s="2"/>
       <c r="AX59" s="2"/>
-      <c r="AY59" s="2"/>
+      <c r="AY59" s="2" t="s">
+        <v>260</v>
+      </c>
       <c r="AZ59" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="BA59" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="BB59" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="BC59" s="4"/>
-    </row>
-    <row r="60" spans="1:55" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="BB59" s="4"/>
+    </row>
+    <row r="60" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>97</v>
       </c>
@@ -7786,53 +7701,53 @@
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
       <c r="U60" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="V60" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="W60" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="X60" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Y60" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Z60" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AA60" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AB60" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AC60" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AD60" s="2"/>
       <c r="AE60" s="2"/>
@@ -7854,18 +7769,17 @@
       <c r="AU60" s="2"/>
       <c r="AV60" s="2"/>
       <c r="AW60" s="2"/>
-      <c r="AX60" s="2"/>
+      <c r="AX60" s="2" t="s">
+        <v>262</v>
+      </c>
       <c r="AY60" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="AZ60" s="2" t="s">
-        <v>263</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="AZ60" s="2"/>
       <c r="BA60" s="2"/>
-      <c r="BB60" s="2"/>
-      <c r="BC60" s="4"/>
-    </row>
-    <row r="61" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB60" s="4"/>
+    </row>
+    <row r="61" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>99</v>
       </c>
@@ -7917,16 +7831,15 @@
       <c r="AU61" s="2"/>
       <c r="AV61" s="2"/>
       <c r="AW61" s="2"/>
-      <c r="AX61" s="2"/>
-      <c r="AY61" s="2" t="s">
-        <v>265</v>
-      </c>
+      <c r="AX61" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="AY61" s="2"/>
       <c r="AZ61" s="2"/>
       <c r="BA61" s="2"/>
-      <c r="BB61" s="2"/>
-      <c r="BC61" s="4"/>
-    </row>
-    <row r="62" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB61" s="4"/>
+    </row>
+    <row r="62" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>100</v>
       </c>
@@ -7945,7 +7858,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
@@ -7959,26 +7872,26 @@
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
       <c r="AB62" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AE62" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AF62" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AG62" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AH62" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AI62" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AJ62" s="2"/>
       <c r="AK62" s="2"/>
@@ -7990,26 +7903,25 @@
       <c r="AQ62" s="2"/>
       <c r="AR62" s="2"/>
       <c r="AS62" s="2"/>
-      <c r="AT62" s="2"/>
-      <c r="AU62" s="2" t="s">
-        <v>266</v>
-      </c>
+      <c r="AT62" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AU62" s="2"/>
       <c r="AV62" s="2"/>
       <c r="AW62" s="2"/>
       <c r="AX62" s="2"/>
-      <c r="AY62" s="2"/>
+      <c r="AY62" s="2" t="s">
+        <v>264</v>
+      </c>
       <c r="AZ62" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="BA62" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="BB62" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="BC62" s="4"/>
-    </row>
-    <row r="63" spans="1:55" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+      <c r="BB62" s="4"/>
+    </row>
+    <row r="63" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>101</v>
       </c>
@@ -8062,15 +7974,14 @@
       <c r="AV63" s="2"/>
       <c r="AW63" s="2"/>
       <c r="AX63" s="2"/>
-      <c r="AY63" s="2"/>
-      <c r="AZ63" s="2" t="s">
-        <v>268</v>
-      </c>
+      <c r="AY63" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="AZ63" s="2"/>
       <c r="BA63" s="2"/>
-      <c r="BB63" s="2"/>
-      <c r="BC63" s="4"/>
-    </row>
-    <row r="64" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB63" s="4"/>
+    </row>
+    <row r="64" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>102</v>
       </c>
@@ -8123,15 +8034,14 @@
       <c r="AV64" s="2"/>
       <c r="AW64" s="2"/>
       <c r="AX64" s="2"/>
-      <c r="AY64" s="2"/>
-      <c r="AZ64" s="2" t="s">
-        <v>269</v>
-      </c>
+      <c r="AY64" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ64" s="2"/>
       <c r="BA64" s="2"/>
-      <c r="BB64" s="2"/>
-      <c r="BC64" s="4"/>
-    </row>
-    <row r="65" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB64" s="4"/>
+    </row>
+    <row r="65" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>104</v>
       </c>
@@ -8143,7 +8053,7 @@
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -8186,15 +8096,14 @@
       <c r="AV65" s="2"/>
       <c r="AW65" s="2"/>
       <c r="AX65" s="2"/>
-      <c r="AY65" s="2"/>
-      <c r="AZ65" s="2" t="s">
-        <v>271</v>
-      </c>
+      <c r="AY65" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="AZ65" s="2"/>
       <c r="BA65" s="2"/>
-      <c r="BB65" s="2"/>
-      <c r="BC65" s="4"/>
-    </row>
-    <row r="66" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB65" s="4"/>
+    </row>
+    <row r="66" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>105</v>
       </c>
@@ -8205,7 +8114,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
@@ -8220,7 +8129,7 @@
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
       <c r="U66" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
@@ -8254,10 +8163,9 @@
       <c r="AY66" s="2"/>
       <c r="AZ66" s="2"/>
       <c r="BA66" s="2"/>
-      <c r="BB66" s="2"/>
-      <c r="BC66" s="4"/>
-    </row>
-    <row r="67" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB66" s="4"/>
+    </row>
+    <row r="67" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>106</v>
       </c>
@@ -8269,55 +8177,55 @@
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
       <c r="U67" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="V67" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="W67" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="X67" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Y67" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z67" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AA67" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AB67" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AC67" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD67" s="2"/>
       <c r="AE67" s="2"/>
@@ -8325,58 +8233,57 @@
       <c r="AG67" s="2"/>
       <c r="AH67" s="2"/>
       <c r="AI67" s="2"/>
-      <c r="AJ67" s="2"/>
+      <c r="AJ67" s="2" t="s">
+        <v>272</v>
+      </c>
       <c r="AK67" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AL67" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AM67" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AN67" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AO67" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AP67" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AQ67" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AR67" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AS67" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="AT67" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="AU67" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="AT67" s="2"/>
+      <c r="AU67" s="2" t="s">
+        <v>272</v>
+      </c>
       <c r="AV67" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AW67" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AX67" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AY67" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="AZ67" s="2" t="s">
-        <v>274</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="AZ67" s="2"/>
       <c r="BA67" s="2"/>
-      <c r="BB67" s="2"/>
-      <c r="BC67" s="4"/>
-    </row>
-    <row r="68" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB67" s="4"/>
+    </row>
+    <row r="68" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>107</v>
       </c>
@@ -8430,14 +8337,13 @@
       <c r="AW68" s="2"/>
       <c r="AX68" s="2"/>
       <c r="AY68" s="2"/>
-      <c r="AZ68" s="2"/>
-      <c r="BA68" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="BB68" s="2"/>
-      <c r="BC68" s="4"/>
-    </row>
-    <row r="69" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="AZ68" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="BA68" s="2"/>
+      <c r="BB68" s="4"/>
+    </row>
+    <row r="69" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>109</v>
       </c>
@@ -8492,13 +8398,12 @@
       <c r="AX69" s="2"/>
       <c r="AY69" s="2"/>
       <c r="AZ69" s="2"/>
-      <c r="BA69" s="2"/>
-      <c r="BB69" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="BC69" s="4"/>
-    </row>
-    <row r="70" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BA69" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="BB69" s="4"/>
+    </row>
+    <row r="70" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>111</v>
       </c>
@@ -8517,7 +8422,7 @@
       <c r="N70" s="9"/>
       <c r="O70" s="9"/>
       <c r="P70" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Q70" s="9"/>
       <c r="R70" s="9"/>
@@ -8533,22 +8438,22 @@
       <c r="AB70" s="9"/>
       <c r="AC70" s="9"/>
       <c r="AD70" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AE70" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AF70" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AG70" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AH70" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AI70" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AJ70" s="9"/>
       <c r="AK70" s="9"/>
@@ -8560,25 +8465,24 @@
       <c r="AQ70" s="9"/>
       <c r="AR70" s="9"/>
       <c r="AS70" s="9"/>
-      <c r="AT70" s="9"/>
-      <c r="AU70" s="9" t="s">
-        <v>278</v>
-      </c>
+      <c r="AT70" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="AU70" s="9"/>
       <c r="AV70" s="9"/>
       <c r="AW70" s="9"/>
       <c r="AX70" s="9"/>
-      <c r="AY70" s="9"/>
+      <c r="AY70" s="9" t="s">
+        <v>276</v>
+      </c>
       <c r="AZ70" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BA70" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="BB70" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="BC70" s="10" t="s">
-        <v>279</v>
+        <v>276</v>
+      </c>
+      <c r="BB70" s="10" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/LL1.xlsx
+++ b/LL1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theot\Documents\TELECOM\2A\Projet_compil\pcl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155EE861-560F-485E-838C-01C9B7F63663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B78C177-9876-4AC0-B5EE-9DF155B2D52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{6D8C16DF-770F-44B3-88DF-F08FBFD5ADCC}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" activeTab="1" xr2:uid="{6D8C16DF-770F-44B3-88DF-F08FBFD5ADCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -2547,8 +2547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1E37C5-8300-43F0-8EE7-C57C19613C2D}">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3340,8 +3340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F681F8A-924D-4ED2-9279-7655A3BABCEB}">
   <dimension ref="A1:BB70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH31" workbookViewId="0">
-      <selection activeCell="AI39" sqref="AI39"/>
+    <sheetView tabSelected="1" topLeftCell="AC49" workbookViewId="0">
+      <selection activeCell="AE55" sqref="AE55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3377,10 +3377,9 @@
     <col min="47" max="47" width="35.21875" bestFit="1" customWidth="1"/>
     <col min="48" max="49" width="32" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="32" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="82.88671875" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="82.88671875" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="23.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.3">

--- a/LL1.xlsx
+++ b/LL1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theot\Documents\TELECOM\2A\Projet_compil\pcl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B78C177-9876-4AC0-B5EE-9DF155B2D52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F7DA3C-AC8D-4C95-817F-48FD595A951D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" activeTab="1" xr2:uid="{6D8C16DF-770F-44B3-88DF-F08FBFD5ADCC}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11688" windowHeight="13056" activeTab="1" xr2:uid="{6D8C16DF-770F-44B3-88DF-F08FBFD5ADCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="279">
   <si>
     <t>NonTerminal</t>
   </si>
@@ -630,12 +630,6 @@
     <t>INSTR_SUITE ::= ε</t>
   </si>
   <si>
-    <t>INSTR_SUITE ::= return RETURN</t>
-  </si>
-  <si>
-    <t>INSTR_SUITE ::= INSTR ;</t>
-  </si>
-  <si>
     <t>INSTR ::= begin INSTR_PLUS end</t>
   </si>
   <si>
@@ -877,6 +871,9 @@
   </si>
   <si>
     <t>VAL ::= 1 VAL</t>
+  </si>
+  <si>
+    <t>INSTR_SUITE ::= INSTR_PLUS</t>
   </si>
 </sst>
 </file>
@@ -2547,7 +2544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1E37C5-8300-43F0-8EE7-C57C19613C2D}">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -3340,8 +3337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F681F8A-924D-4ED2-9279-7655A3BABCEB}">
   <dimension ref="A1:BB70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC49" workbookViewId="0">
-      <selection activeCell="AE55" sqref="AE55"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="AY29" sqref="AY29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3486,7 +3483,7 @@
         <v>140</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AJ1" s="6" t="s">
         <v>72</v>
@@ -5299,10 +5296,10 @@
         <v>196</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>197</v>
+        <v>278</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>198</v>
+        <v>278</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
@@ -5311,14 +5308,14 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2" t="s">
-        <v>198</v>
+        <v>278</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>198</v>
+        <v>278</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" s="2" t="s">
-        <v>198</v>
+        <v>278</v>
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2" t="s">
@@ -5350,7 +5347,7 @@
       <c r="AW29" s="2"/>
       <c r="AX29" s="2"/>
       <c r="AY29" s="2" t="s">
-        <v>198</v>
+        <v>278</v>
       </c>
       <c r="AZ29" s="2"/>
       <c r="BA29" s="2"/>
@@ -5374,7 +5371,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -5383,14 +5380,14 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
@@ -5418,7 +5415,7 @@
       <c r="AW30" s="2"/>
       <c r="AX30" s="2"/>
       <c r="AY30" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AZ30" s="2"/>
       <c r="BA30" s="2"/>
@@ -5436,7 +5433,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -5445,13 +5442,13 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
@@ -5504,12 +5501,12 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
@@ -5522,29 +5519,29 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AB32" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AE32" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AF32" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AG32" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AH32" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AI32" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AJ32" s="2"/>
       <c r="AK32" s="2"/>
@@ -5557,20 +5554,20 @@
       <c r="AR32" s="2"/>
       <c r="AS32" s="2"/>
       <c r="AT32" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AU32" s="2"/>
       <c r="AV32" s="2"/>
       <c r="AW32" s="2"/>
       <c r="AX32" s="2"/>
       <c r="AY32" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AZ32" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="BA32" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="BB32" s="4"/>
     </row>
@@ -5593,7 +5590,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
@@ -5609,22 +5606,22 @@
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
       <c r="AD33" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AE33" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AF33" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG33" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AH33" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AI33" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AJ33" s="2"/>
       <c r="AK33" s="2"/>
@@ -5637,20 +5634,20 @@
       <c r="AR33" s="2"/>
       <c r="AS33" s="2"/>
       <c r="AT33" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AU33" s="2"/>
       <c r="AV33" s="2"/>
       <c r="AW33" s="2"/>
       <c r="AX33" s="2"/>
       <c r="AY33" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AZ33" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="BA33" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="BB33" s="4"/>
     </row>
@@ -5670,7 +5667,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5686,10 +5683,10 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
@@ -5748,7 +5745,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
@@ -5794,7 +5791,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5811,7 +5808,7 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
       <c r="AB36" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" s="2"/>
@@ -5871,7 +5868,7 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
       <c r="AB37" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -5917,10 +5914,10 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
@@ -5929,20 +5926,20 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
       <c r="V38" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
       <c r="AC38" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
@@ -5966,7 +5963,7 @@
       <c r="AW38" s="2"/>
       <c r="AX38" s="2"/>
       <c r="AY38" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AZ38" s="2"/>
       <c r="BA38" s="2"/>
@@ -5991,7 +5988,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -6007,22 +6004,22 @@
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
       <c r="AD39" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE39" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF39" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="AE39" s="2" t="s">
+      <c r="AG39" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="AF39" s="2" t="s">
+      <c r="AH39" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="AG39" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AH39" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="AI39" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AJ39" s="2"/>
       <c r="AK39" s="2"/>
@@ -6040,13 +6037,13 @@
       <c r="AW39" s="2"/>
       <c r="AX39" s="2"/>
       <c r="AY39" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AZ39" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="BA39" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="AZ39" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="BA39" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="BB39" s="4"/>
     </row>
@@ -6069,7 +6066,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
@@ -6085,22 +6082,22 @@
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
       <c r="AD40" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AE40" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AF40" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AG40" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AH40" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AI40" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AJ40" s="2"/>
       <c r="AK40" s="2"/>
@@ -6118,13 +6115,13 @@
       <c r="AW40" s="2"/>
       <c r="AX40" s="2"/>
       <c r="AY40" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AZ40" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="BA40" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="BB40" s="4"/>
     </row>
@@ -6140,53 +6137,53 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
       <c r="U41" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="Y41" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="Z41" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AA41" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AB41" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AC41" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
@@ -6195,50 +6192,50 @@
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
       <c r="AJ41" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AK41" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AL41" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AM41" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AN41" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AO41" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AP41" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AQ41" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AR41" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AS41" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AT41" s="2"/>
       <c r="AU41" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AV41" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AW41" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AX41" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AY41" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AZ41" s="2"/>
       <c r="BA41" s="2"/>
@@ -6283,7 +6280,7 @@
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
       <c r="AJ42" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AK42" s="2"/>
       <c r="AL42" s="2"/>
@@ -6323,7 +6320,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
@@ -6339,22 +6336,22 @@
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
       <c r="AD43" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AE43" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AF43" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AG43" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AH43" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AI43" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AJ43" s="2"/>
       <c r="AK43" s="2"/>
@@ -6372,13 +6369,13 @@
       <c r="AW43" s="2"/>
       <c r="AX43" s="2"/>
       <c r="AY43" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AZ43" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="BA43" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="BB43" s="4"/>
     </row>
@@ -6394,53 +6391,53 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
       <c r="U44" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="W44" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="X44" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Y44" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Z44" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AA44" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AB44" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AC44" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
@@ -6450,47 +6447,47 @@
       <c r="AI44" s="2"/>
       <c r="AJ44" s="2"/>
       <c r="AK44" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AL44" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AM44" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AN44" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AO44" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AP44" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AQ44" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AR44" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AS44" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AT44" s="2"/>
       <c r="AU44" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AV44" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AW44" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AX44" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AY44" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AZ44" s="2"/>
       <c r="BA44" s="2"/>
@@ -6536,13 +6533,13 @@
       <c r="AI45" s="2"/>
       <c r="AJ45" s="2"/>
       <c r="AK45" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL45" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM45" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="AL45" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="AM45" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="AN45" s="2"/>
       <c r="AO45" s="2"/>
@@ -6579,7 +6576,7 @@
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
@@ -6595,22 +6592,22 @@
       <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
       <c r="AD46" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AE46" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AF46" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AG46" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AH46" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AI46" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AJ46" s="2"/>
       <c r="AK46" s="2"/>
@@ -6628,13 +6625,13 @@
       <c r="AW46" s="2"/>
       <c r="AX46" s="2"/>
       <c r="AY46" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AZ46" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="BA46" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="BB46" s="4"/>
     </row>
@@ -6650,53 +6647,53 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
       <c r="U47" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="W47" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="X47" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Y47" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Z47" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AA47" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AB47" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AC47" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
@@ -6709,38 +6706,38 @@
       <c r="AL47" s="2"/>
       <c r="AM47" s="2"/>
       <c r="AN47" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AO47" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AP47" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AQ47" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AR47" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AS47" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AT47" s="2"/>
       <c r="AU47" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AV47" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AW47" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AX47" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AY47" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AZ47" s="2"/>
       <c r="BA47" s="2"/>
@@ -6789,10 +6786,10 @@
       <c r="AL48" s="2"/>
       <c r="AM48" s="2"/>
       <c r="AN48" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AO48" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AP48" s="2"/>
       <c r="AQ48" s="2"/>
@@ -6827,7 +6824,7 @@
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
@@ -6843,22 +6840,22 @@
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
       <c r="AD49" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AE49" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AF49" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AG49" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AH49" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AI49" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AJ49" s="2"/>
       <c r="AK49" s="2"/>
@@ -6876,13 +6873,13 @@
       <c r="AW49" s="2"/>
       <c r="AX49" s="2"/>
       <c r="AY49" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AZ49" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="BA49" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="BB49" s="4"/>
     </row>
@@ -6898,53 +6895,53 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
       <c r="U50" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Y50" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Z50" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AA50" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AB50" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AC50" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
@@ -6959,32 +6956,32 @@
       <c r="AN50" s="2"/>
       <c r="AO50" s="2"/>
       <c r="AP50" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AQ50" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AR50" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AS50" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AT50" s="2"/>
       <c r="AU50" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AV50" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AW50" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AX50" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AY50" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AZ50" s="2"/>
       <c r="BA50" s="2"/>
@@ -7035,16 +7032,16 @@
       <c r="AN51" s="2"/>
       <c r="AO51" s="2"/>
       <c r="AP51" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ51" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AR51" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="AQ51" s="2" t="s">
+      <c r="AS51" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="AR51" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS51" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="AT51" s="2"/>
       <c r="AU51" s="2"/>
@@ -7075,7 +7072,7 @@
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
@@ -7091,22 +7088,22 @@
       <c r="AB52" s="2"/>
       <c r="AC52" s="2"/>
       <c r="AD52" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AE52" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AF52" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AG52" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH52" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AI52" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AJ52" s="2"/>
       <c r="AK52" s="2"/>
@@ -7119,20 +7116,20 @@
       <c r="AR52" s="2"/>
       <c r="AS52" s="2"/>
       <c r="AT52" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AU52" s="2"/>
       <c r="AV52" s="2"/>
       <c r="AW52" s="2"/>
       <c r="AX52" s="2"/>
       <c r="AY52" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AZ52" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="BA52" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="BB52" s="4"/>
     </row>
@@ -7148,53 +7145,53 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
       <c r="U53" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="W53" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="X53" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Y53" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Z53" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AA53" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AB53" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC53" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
@@ -7214,19 +7211,19 @@
       <c r="AS53" s="2"/>
       <c r="AT53" s="2"/>
       <c r="AU53" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AV53" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AW53" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AX53" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AY53" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AZ53" s="2"/>
       <c r="BA53" s="2"/>
@@ -7282,10 +7279,10 @@
       <c r="AS54" s="2"/>
       <c r="AT54" s="2"/>
       <c r="AU54" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AV54" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AW54" s="2"/>
       <c r="AX54" s="2"/>
@@ -7313,7 +7310,7 @@
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
@@ -7329,22 +7326,22 @@
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
       <c r="AD55" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AE55" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AF55" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AG55" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AH55" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AI55" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AJ55" s="2"/>
       <c r="AK55" s="2"/>
@@ -7357,20 +7354,20 @@
       <c r="AR55" s="2"/>
       <c r="AS55" s="2"/>
       <c r="AT55" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AU55" s="2"/>
       <c r="AV55" s="2"/>
       <c r="AW55" s="2"/>
       <c r="AX55" s="2"/>
       <c r="AY55" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AZ55" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="BA55" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="BB55" s="4"/>
     </row>
@@ -7386,53 +7383,53 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
       <c r="U56" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="W56" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="X56" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Y56" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Z56" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AA56" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AB56" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AC56" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AD56" s="2"/>
       <c r="AE56" s="2"/>
@@ -7454,13 +7451,13 @@
       <c r="AU56" s="2"/>
       <c r="AV56" s="2"/>
       <c r="AW56" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AX56" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AY56" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AZ56" s="2"/>
       <c r="BA56" s="2"/>
@@ -7518,7 +7515,7 @@
       <c r="AU57" s="2"/>
       <c r="AV57" s="2"/>
       <c r="AW57" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AX57" s="2"/>
       <c r="AY57" s="2"/>
@@ -7545,7 +7542,7 @@
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
@@ -7560,25 +7557,25 @@
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
       <c r="AC58" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AD58" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AE58" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AF58" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AG58" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AH58" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AI58" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AJ58" s="2"/>
       <c r="AK58" s="2"/>
@@ -7591,20 +7588,20 @@
       <c r="AR58" s="2"/>
       <c r="AS58" s="2"/>
       <c r="AT58" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AU58" s="2"/>
       <c r="AV58" s="2"/>
       <c r="AW58" s="2"/>
       <c r="AX58" s="2"/>
       <c r="AY58" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AZ58" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="BA58" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="BB58" s="4"/>
     </row>
@@ -7627,7 +7624,7 @@
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
@@ -7643,22 +7640,22 @@
       <c r="AB59" s="2"/>
       <c r="AC59" s="2"/>
       <c r="AD59" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AE59" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AF59" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AG59" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AH59" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AI59" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AJ59" s="2"/>
       <c r="AK59" s="2"/>
@@ -7671,20 +7668,20 @@
       <c r="AR59" s="2"/>
       <c r="AS59" s="2"/>
       <c r="AT59" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AU59" s="2"/>
       <c r="AV59" s="2"/>
       <c r="AW59" s="2"/>
       <c r="AX59" s="2"/>
       <c r="AY59" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AZ59" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="BA59" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="BB59" s="4"/>
     </row>
@@ -7700,53 +7697,53 @@
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
       <c r="U60" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="V60" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="W60" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="X60" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Y60" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Z60" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AA60" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AB60" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AC60" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AD60" s="2"/>
       <c r="AE60" s="2"/>
@@ -7769,10 +7766,10 @@
       <c r="AV60" s="2"/>
       <c r="AW60" s="2"/>
       <c r="AX60" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AY60" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AZ60" s="2"/>
       <c r="BA60" s="2"/>
@@ -7831,7 +7828,7 @@
       <c r="AV61" s="2"/>
       <c r="AW61" s="2"/>
       <c r="AX61" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AY61" s="2"/>
       <c r="AZ61" s="2"/>
@@ -7857,7 +7854,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
@@ -7871,26 +7868,26 @@
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
       <c r="AB62" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AE62" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF62" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AG62" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AH62" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AI62" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AJ62" s="2"/>
       <c r="AK62" s="2"/>
@@ -7903,20 +7900,20 @@
       <c r="AR62" s="2"/>
       <c r="AS62" s="2"/>
       <c r="AT62" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AU62" s="2"/>
       <c r="AV62" s="2"/>
       <c r="AW62" s="2"/>
       <c r="AX62" s="2"/>
       <c r="AY62" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AZ62" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="BA62" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="BB62" s="4"/>
     </row>
@@ -7974,7 +7971,7 @@
       <c r="AW63" s="2"/>
       <c r="AX63" s="2"/>
       <c r="AY63" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AZ63" s="2"/>
       <c r="BA63" s="2"/>
@@ -8034,7 +8031,7 @@
       <c r="AW64" s="2"/>
       <c r="AX64" s="2"/>
       <c r="AY64" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AZ64" s="2"/>
       <c r="BA64" s="2"/>
@@ -8052,7 +8049,7 @@
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -8096,7 +8093,7 @@
       <c r="AW65" s="2"/>
       <c r="AX65" s="2"/>
       <c r="AY65" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AZ65" s="2"/>
       <c r="BA65" s="2"/>
@@ -8113,7 +8110,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
@@ -8128,7 +8125,7 @@
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
       <c r="U66" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
@@ -8176,55 +8173,55 @@
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
       <c r="U67" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="V67" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="W67" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="X67" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Y67" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Z67" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AA67" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AB67" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AC67" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AD67" s="2"/>
       <c r="AE67" s="2"/>
@@ -8233,50 +8230,50 @@
       <c r="AH67" s="2"/>
       <c r="AI67" s="2"/>
       <c r="AJ67" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AK67" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AL67" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AM67" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AN67" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AO67" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AP67" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AQ67" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AR67" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AS67" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AT67" s="2"/>
       <c r="AU67" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AV67" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AW67" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AX67" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AY67" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AZ67" s="2"/>
       <c r="BA67" s="2"/>
@@ -8337,7 +8334,7 @@
       <c r="AX68" s="2"/>
       <c r="AY68" s="2"/>
       <c r="AZ68" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BA68" s="2"/>
       <c r="BB68" s="4"/>
@@ -8398,7 +8395,7 @@
       <c r="AY69" s="2"/>
       <c r="AZ69" s="2"/>
       <c r="BA69" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="BB69" s="4"/>
     </row>
@@ -8421,7 +8418,7 @@
       <c r="N70" s="9"/>
       <c r="O70" s="9"/>
       <c r="P70" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q70" s="9"/>
       <c r="R70" s="9"/>
@@ -8437,22 +8434,22 @@
       <c r="AB70" s="9"/>
       <c r="AC70" s="9"/>
       <c r="AD70" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AE70" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AF70" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AG70" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AH70" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AI70" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AJ70" s="9"/>
       <c r="AK70" s="9"/>
@@ -8465,23 +8462,23 @@
       <c r="AR70" s="9"/>
       <c r="AS70" s="9"/>
       <c r="AT70" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AU70" s="9"/>
       <c r="AV70" s="9"/>
       <c r="AW70" s="9"/>
       <c r="AX70" s="9"/>
       <c r="AY70" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AZ70" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="BA70" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="BB70" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
